--- a/input/traffic/rest_industry.xlsx
+++ b/input/traffic/rest_industry.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\04_Projekte\Nachfragemodell\03_Modell\endemo\input\traffic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\traffic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFA831C-47E5-4ABB-A295-63BB8281CE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -125,12 +137,6 @@
     <t>t_percentage</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>country_de</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -210,14 +216,20 @@
   </si>
   <si>
     <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Country_de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -250,7 +262,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -530,21 +542,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -556,9 +568,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -574,9 +586,9 @@
         <v>57.130062885190618</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -592,9 +604,9 @@
         <v>73.488155418111177</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -610,9 +622,9 @@
         <v>67.936214766004227</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -628,9 +640,9 @@
         <v>86.748439962746644</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -646,9 +658,9 @@
         <v>59.344759809303561</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -664,9 +676,9 @@
         <v>88.091614763726355</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -682,9 +694,9 @@
         <v>40.519817745548025</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -700,9 +712,9 @@
         <v>53.973820245081278</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -718,9 +730,9 @@
         <v>66.205974050095023</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -736,9 +748,9 @@
         <v>50.65416101201366</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -754,9 +766,9 @@
         <v>56.659540936013663</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -772,9 +784,9 @@
         <v>90.251032704254399</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -790,9 +802,9 @@
         <v>46.745689227504464</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -808,9 +820,9 @@
         <v>71.596548374239177</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -826,9 +838,9 @@
         <v>65.818411838243904</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -844,9 +856,9 @@
         <v>59.444122544372526</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -862,7 +874,7 @@
         <v>68.883044977752533</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -880,9 +892,9 @@
         <v>45.25171634403992</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -898,9 +910,9 @@
         <v>48.965475656944363</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -916,9 +928,9 @@
         <v>62.226313697577851</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -934,9 +946,9 @@
         <v>35.960219716998004</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -952,9 +964,9 @@
         <v>36.686864838150285</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -970,9 +982,9 @@
         <v>37.319456739913228</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -988,7 +1000,7 @@
         <v>78.183650892732061</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -1003,12 +1015,12 @@
         <v>51.460694460506488</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1026,9 +1038,9 @@
         <v>18.419069317114115</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -1044,9 +1056,9 @@
         <v>77.988810679538844</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -1062,9 +1074,9 @@
         <v>60.899571373940169</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -1080,9 +1092,9 @@
         <v>77.231672213185021</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
